--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Base/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B8AF1-2B03-984A-987E-87E9534D4FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD4B2DC-BEAA-FA45-8C54-89ACAA6AA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3400" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="3400" windowWidth="33020" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="3" r:id="rId1"/>
@@ -119,26 +119,27 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>StartProcess</t>
+  </si>
+  <si>
+    <t>StartScene</t>
+  </si>
+  <si>
+    <t>StartZone</t>
+  </si>
+  <si>
     <t>StartMachine</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>StartProcess</t>
-  </si>
-  <si>
-    <t>StartScene</t>
-  </si>
-  <si>
-    <t>StartZone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +157,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -193,11 +202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -487,9 +499,9 @@
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="35.1640625" customWidth="1"/>
@@ -593,15 +605,15 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("ET.Server.", B4,"ConfigCategory")</f>
         <v>ET.Server.StartMachineConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D7" si="0">_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D6" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>StartMachineConfig</v>
       </c>
       <c r="E4" t="b">
@@ -612,7 +624,7 @@
         <v>StartMachine.xlsx</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.CONCAT(D4, "Category")</f>
@@ -621,7 +633,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C7" si="1">_xlfn.CONCAT("ET.Server.", B5,"ConfigCategory")</f>
@@ -635,68 +647,68 @@
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.CONCAT(B5,".xlsx")</f>
+        <f t="shared" ref="F5:F7" si="2">_xlfn.CONCAT(B5,".xlsx")</f>
         <v>StartProcess.xlsx</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L7" si="2">_xlfn.CONCAT(D5, "Category")</f>
+        <f t="shared" ref="L5:L7" si="3">_xlfn.CONCAT(D5, "Category")</f>
         <v>StartProcessConfigCategory</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>ET.Server.StartSceneConfigCategory</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(B6,"Config")</f>
+        <f t="shared" si="0"/>
         <v>StartSceneConfig</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f>_xlfn.CONCAT(B6,".xlsx")</f>
+        <f t="shared" si="2"/>
         <v>StartScene.xlsx</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>StartSceneConfigCategory</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>ET.Server.StartZoneConfigCategory</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B7,"Config")</f>
         <v>StartZoneConfig</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f>_xlfn.CONCAT(B7,".xlsx")</f>
+        <f t="shared" si="2"/>
         <v>StartZone.xlsx</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>StartZoneConfigCategory</v>
       </c>
     </row>
